--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
@@ -528,52 +528,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H2">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I2">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J2">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.069191100728583</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="N2">
-        <v>0.069191100728583</v>
+        <v>0.309229</v>
       </c>
       <c r="O2">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="P2">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="Q2">
-        <v>0.378085646399193</v>
+        <v>1.244133679730222</v>
       </c>
       <c r="R2">
-        <v>0.378085646399193</v>
+        <v>11.197203117572</v>
       </c>
       <c r="S2">
-        <v>0.004701946115900611</v>
+        <v>0.008563728179023053</v>
       </c>
       <c r="T2">
-        <v>0.004701946115900611</v>
+        <v>0.008563728179023055</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H3">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I3">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J3">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.762738344900519</v>
+        <v>9.046962666666667</v>
       </c>
       <c r="N3">
-        <v>8.762738344900519</v>
+        <v>27.140888</v>
       </c>
       <c r="O3">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733926</v>
       </c>
       <c r="P3">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733927</v>
       </c>
       <c r="Q3">
-        <v>47.88282823184041</v>
+        <v>109.1970444511538</v>
       </c>
       <c r="R3">
-        <v>47.88282823184041</v>
+        <v>982.7734000603838</v>
       </c>
       <c r="S3">
-        <v>0.5954800991977532</v>
+        <v>0.7516345083071402</v>
       </c>
       <c r="T3">
-        <v>0.5954800991977532</v>
+        <v>0.7516345083071404</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H4">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I4">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J4">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.069191100728583</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="N4">
-        <v>0.069191100728583</v>
+        <v>0.309229</v>
       </c>
       <c r="O4">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="P4">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="Q4">
-        <v>0.08316009200940488</v>
+        <v>0.1348514684573333</v>
       </c>
       <c r="R4">
-        <v>0.08316009200940488</v>
+        <v>1.213663216116</v>
       </c>
       <c r="S4">
-        <v>0.001034194964409506</v>
+        <v>0.0009282212508394738</v>
       </c>
       <c r="T4">
-        <v>0.001034194964409506</v>
+        <v>0.0009282212508394739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H5">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I5">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J5">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.762738344900519</v>
+        <v>9.046962666666667</v>
       </c>
       <c r="N5">
-        <v>8.762738344900519</v>
+        <v>27.140888</v>
       </c>
       <c r="O5">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733926</v>
       </c>
       <c r="P5">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733927</v>
       </c>
       <c r="Q5">
-        <v>10.53184758361903</v>
+        <v>11.83585175399467</v>
       </c>
       <c r="R5">
-        <v>10.53184758361903</v>
+        <v>106.522665785952</v>
       </c>
       <c r="S5">
-        <v>0.1309760904987384</v>
+        <v>0.08146955495200665</v>
       </c>
       <c r="T5">
-        <v>0.1309760904987384</v>
+        <v>0.08146955495200667</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H6">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I6">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J6">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.069191100728583</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="N6">
-        <v>0.069191100728583</v>
+        <v>0.309229</v>
       </c>
       <c r="O6">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="P6">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="Q6">
-        <v>0.1687058726923411</v>
+        <v>0.2576059671522222</v>
       </c>
       <c r="R6">
-        <v>0.1687058726923411</v>
+        <v>2.31845370437</v>
       </c>
       <c r="S6">
-        <v>0.002098058813895954</v>
+        <v>0.001773175596744826</v>
       </c>
       <c r="T6">
-        <v>0.002098058813895954</v>
+        <v>0.001773175596744826</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H7">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I7">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J7">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.762738344900519</v>
+        <v>9.046962666666667</v>
       </c>
       <c r="N7">
-        <v>8.762738344900519</v>
+        <v>27.140888</v>
       </c>
       <c r="O7">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733926</v>
       </c>
       <c r="P7">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733927</v>
       </c>
       <c r="Q7">
-        <v>21.36583179172322</v>
+        <v>22.60995800073778</v>
       </c>
       <c r="R7">
-        <v>21.36583179172322</v>
+        <v>203.48962200664</v>
       </c>
       <c r="S7">
-        <v>0.2657096104093023</v>
+        <v>0.1556308117142457</v>
       </c>
       <c r="T7">
-        <v>0.2657096104093023</v>
+        <v>0.1556308117142458</v>
       </c>
     </row>
   </sheetData>
